--- a/Output/Reach_Assessment_Project_Data_Habitat_Attributes_Priority_Reaches.xlsx
+++ b/Output/Reach_Assessment_Project_Data_Habitat_Attributes_Priority_Reaches.xlsx
@@ -409,7 +409,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Upper Stillwaters Assessment, Preston Reach Assessment</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -431,7 +431,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chewuch River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Upper Stillwaters Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Upper Stillwaters Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lower Entiat Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lower Entiat Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lower Entiat Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lower Entiat Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Stormy Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Preston Reach Assessment,Stormy Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Preston Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Upper Stillwaters Assessment,Preston Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Upper Stillwaters Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Upper Stillwaters Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Upper Stillwaters Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Upper Stillwaters Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lower Methow</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Lower Methow</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Upper Methow River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Upper Methow River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Upper Methow River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Upper Methow River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Upper Methow River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Upper Methow River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Upper Methow River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lower Methow</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Lower Methow</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Upper Methow River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Upper Methow River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Upper Methow River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Upper Methow River Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Kahler Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Kahler Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kahler Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kahler Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lower White Pine Creek Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Lower White Pine Creek Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Upper White Pine Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Upper White Pine Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lower Twisp Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lower Twisp Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lower Twisp Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lower Twisp Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Lower Twisp Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lower Wenatchee Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Lower Wenatchee Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lower Wenatchee Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Lower Wenatchee Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lower Wenatchee Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lower Wenatchee Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lower Wenatchee Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lower Wenatchee Reach Assessment</t>
+          <t>Lower Mad River Reach Assessment</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
